--- a/src/main/resources/testdata/inter_test_data.xlsx
+++ b/src/main/resources/testdata/inter_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19100" windowHeight="7730" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>编号</t>
   </si>
@@ -98,6 +98,9 @@
     <t>http://123.56.65.197:8080/mybatis/user/getUserList</t>
   </si>
   <si>
+    <t>查询用户用例</t>
+  </si>
+  <si>
     <t>根据用户名查询用户</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
     <t>ResponseData</t>
   </si>
   <si>
-    <t>DataStore</t>
-  </si>
-  <si>
     <t>CheckPoint</t>
   </si>
   <si>
@@ -134,9 +134,6 @@
     <t>{"userName":"zhangsan","password":"123456","age":13}</t>
   </si>
   <si>
-    <t>{"request":["serviceType","clientSource"],"response":["code"]}</t>
-  </si>
-  <si>
     <t>{"msg":"注册失败：用户名已存在","code":-1,"suc":false}</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
   </si>
   <si>
     <t>{"username": "wcx", "code": "01"}</t>
-  </si>
-  <si>
-    <t>{"request":["username","password"],"response":["code"]}</t>
   </si>
   <si>
     <t>Pass</t>
@@ -164,6 +158,9 @@
   </si>
   <si>
     <t>{"userName":"nem"}</t>
+  </si>
+  <si>
+    <t>DataStore</t>
   </si>
   <si>
     <t>{"username":"","password":""}</t>
@@ -183,11 +180,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -215,14 +212,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,14 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,9 +255,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,62 +315,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,13 +362,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,157 +512,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,34 +559,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,7 +569,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,16 +590,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,8 +622,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,131 +671,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1282,8 +1279,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1370,7 +1367,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -1378,10 +1375,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -1405,10 +1402,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1419,47 +1416,43 @@
     <col min="4" max="4" width="14.8181818181818" customWidth="1"/>
     <col min="5" max="5" width="16.7545454545455" style="3" customWidth="1"/>
     <col min="6" max="6" width="33.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="13.6272727272727" customWidth="1"/>
-    <col min="8" max="8" width="71.9090909090909" customWidth="1"/>
-    <col min="11" max="11" width="13.7545454545455" customWidth="1"/>
+    <col min="7" max="7" width="71.9090909090909" customWidth="1"/>
+    <col min="10" max="10" width="13.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="70.7" customHeight="1" spans="1:11">
+    <row r="2" ht="70.7" customHeight="1" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -1474,23 +1467,20 @@
         <v>200</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="70.7" customHeight="1" spans="1:10">
+    </row>
+    <row r="3" ht="70.7" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1498,29 +1488,26 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3">
         <v>200</v>
       </c>
       <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" ht="42" spans="1:8">
+    </row>
+    <row r="4" ht="42" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
@@ -1530,25 +1517,25 @@
       <c r="E4" s="3">
         <v>200</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" ht="42" spans="1:8">
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" ht="42" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3">
         <v>200</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>46</v>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1586,19 +1573,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
@@ -1615,25 +1602,25 @@
     </row>
     <row r="2" ht="99" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1662,19 +1649,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
